--- a/biology/Microbiologie/Eisenackidium/Eisenackidium.xlsx
+++ b/biology/Microbiologie/Eisenackidium/Eisenackidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eisenackidium triplodermum
 Eisenackidium est un genre fossile d'acritarches, des microfossiles à paroi organique, c’est-à-dire des palynomorphes, auxquels il n'est pas possible d'attribuer une affinité biologique avec certitude (on les regroupe dans les Biota incertae sedis).
-C'est l'espèce type de son genre et été décrite par Fritz H. Cramer en 1966 d'un terrain datant du Dévonien (présente de l'Emsien au Lochkovien) au nord de l'Espagne[2].
+C'est l'espèce type de son genre et été décrite par Fritz H. Cramer en 1966 d'un terrain datant du Dévonien (présente de l'Emsien au Lochkovien) au nord de l'Espagne.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eisenackidium est décrit par F.H. Cramer &amp; M. del C. Díez de Cramer en 1968[1]
-L'espèce Eisenackidium triplodermum est décrite par Cramer, 1966[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eisenackidium est décrit par F.H. Cramer &amp; M. del C. Díez de Cramer en 1968
+L'espèce Eisenackidium triplodermum est décrite par Cramer, 1966
 Le nom de genre honore Alfred Eisenack (1891-1982), un paléontologue allemand.
-La base de données palynologiques Palynodata signale également des descriptions en Argentine[4],[5].
+La base de données palynologiques Palynodata signale également des descriptions en Argentine,.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon AlgaeBase (site visité le 16 janvier 2023), le genre compte une espèce:
 Eisenackidium argentinum Pöthe de Baldis
@@ -568,7 +584,7 @@
 †Eisenackidium gordonense (Crame, 1964b) Mullins (2004)
 †Eisenackidium triplodermum (Cramer, 1966) - type
 †Eisenackidium wenlockense
-Selon IRMNG en 2023, le nombre d'espèces fossiles référencées est de treize[3] :
+Selon IRMNG en 2023, le nombre d'espèces fossiles référencées est de treize :
 †Eisenackidium appendiculum, Wicander &amp; Wood, 1981
 †Eisenackidium argentinum, E.D. Pöthe de Baldis, 1997
 †Eisenackidium carminae, (Cramer, 1964) Eisenack et al., 1973
@@ -581,7 +597,7 @@
 †Eisenackidium ranaemanum, Le Hérissé, 1989
 †Eisenackidium triplodermum, Cramer, 1966 ex Eisenack et al., 1973
 †Eisenackidium valentinum, (Cramer, 1964) Eisenack et al., 1973
-†Eisenackidium wenlockense, Dorning, 1981[3]
+†Eisenackidium wenlockense, Dorning, 1981
 </t>
         </is>
       </c>
